--- a/manuscript/data/BayesianFitForecast/output/SIRV_two_strain-Influenza-negativebinomial-cal-17-fcst-10/performance metrics-SIRV_two_strain-Influenza-negativebinomial-Influenza A-cal-17-fcst-10.xlsx
+++ b/manuscript/data/BayesianFitForecast/output/SIRV_two_strain-Influenza-negativebinomial-cal-17-fcst-10/performance metrics-SIRV_two_strain-Influenza-negativebinomial-Influenza A-cal-17-fcst-10.xlsx
@@ -380,10 +380,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1171.38235294118</v>
+        <v>7500.70588235294</v>
       </c>
       <c r="C2" t="n">
-        <v>11732.4</v>
+        <v>16278.9</v>
       </c>
     </row>
     <row r="3">
@@ -391,10 +391,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3181228.04411765</v>
+        <v>161118284.617647</v>
       </c>
       <c r="C3" t="n">
-        <v>175595772.25</v>
+        <v>288618406.5</v>
       </c>
     </row>
     <row r="4">
@@ -402,10 +402,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>653.372445396419</v>
+        <v>5958.02919462916</v>
       </c>
       <c r="C4" t="n">
-        <v>8771.64045478261</v>
+        <v>15444.343346087</v>
       </c>
     </row>
     <row r="5">
@@ -413,10 +413,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>64.7058823529412</v>
+        <v>88.2352941176471</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
